--- a/todo.xlsx
+++ b/todo.xlsx
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -596,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -604,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -624,7 +624,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -644,7 +644,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
@@ -664,7 +664,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -672,7 +672,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
@@ -712,7 +712,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -732,7 +732,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -852,7 +852,7 @@
         <v>37</v>
       </c>
       <c r="F16" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30">
@@ -872,7 +872,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30">
@@ -892,7 +892,7 @@
         <v>39</v>
       </c>
       <c r="F18" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30">
@@ -912,7 +912,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -920,7 +920,7 @@
         <v>42</v>
       </c>
       <c r="F20" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30">
@@ -940,7 +940,7 @@
         <v>43</v>
       </c>
       <c r="F21" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30">
@@ -960,7 +960,7 @@
         <v>44</v>
       </c>
       <c r="F22" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -968,7 +968,7 @@
         <v>45</v>
       </c>
       <c r="F23" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -988,7 +988,7 @@
         <v>46</v>
       </c>
       <c r="F24" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30">
@@ -999,7 +999,7 @@
         <v>52</v>
       </c>
       <c r="F25" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30">
@@ -1039,7 +1039,7 @@
         <v>51</v>
       </c>
       <c r="F27" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="F28" s="5">
         <f>SUM(F2:F27)</f>
-        <v>347</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F29" s="2">
         <f>F28/60</f>
-        <v>5.7833333333333332</v>
+        <v>7.666666666666667</v>
       </c>
     </row>
   </sheetData>
